--- a/biology/Botanique/Ludovic_Nunez/Ludovic_Nunez.xlsx
+++ b/biology/Botanique/Ludovic_Nunez/Ludovic_Nunez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludovic Nunez, de son nom latin Ludovicus Nonnus ou Ludovicus Nonnius, est un médecin flamand, né à Anvers en 1553 et mort après 1645.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était fils d'un chirurgien portugais qui avait suivi les armées espagnoles dans les Pays-Bas[1]. Il voyagea beaucoup en Italie. On ne connaît pas la date exacte de sa mort ; mais il vivait toujours en 1645 lorsqu'il signa la seconde édition de son traité sur la nourriture. Son érudition était peu commune et il entretenait des correspondances avec plusieurs savants, Juste Lipse entre autres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était fils d'un chirurgien portugais qui avait suivi les armées espagnoles dans les Pays-Bas. Il voyagea beaucoup en Italie. On ne connaît pas la date exacte de sa mort ; mais il vivait toujours en 1645 lorsqu'il signa la seconde édition de son traité sur la nourriture. Son érudition était peu commune et il entretenait des correspondances avec plusieurs savants, Juste Lipse entre autres.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1607 : Hispania, sive populorum, urbium, insularum et fluminum in ea accuratior descriptio
 1616 : Ichtyophagia, sive De piscium esu commentarius, Anvers, Belleros
